--- a/natmiOut/OldD7/LR-pairs_lrc2p/Lama2-Itgb1.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Lama2-Itgb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Itgb1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.45705511607906</v>
+        <v>4.608931666666666</v>
       </c>
       <c r="H2">
-        <v>3.45705511607906</v>
+        <v>13.826795</v>
       </c>
       <c r="I2">
-        <v>0.01732226985425814</v>
+        <v>0.02269509467890621</v>
       </c>
       <c r="J2">
-        <v>0.01732226985425814</v>
+        <v>0.02269509467890622</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>141.669759355589</v>
+        <v>153.5290173333333</v>
       </c>
       <c r="N2">
-        <v>141.669759355589</v>
+        <v>460.587052</v>
       </c>
       <c r="O2">
-        <v>0.313384689518856</v>
+        <v>0.3172206968818489</v>
       </c>
       <c r="P2">
-        <v>0.313384689518856</v>
+        <v>0.317220696881849</v>
       </c>
       <c r="Q2">
-        <v>489.7601663739283</v>
+        <v>707.6047497398154</v>
       </c>
       <c r="R2">
-        <v>489.7601663739283</v>
+        <v>6368.442747658339</v>
       </c>
       <c r="S2">
-        <v>0.005428534160038525</v>
+        <v>0.00719935374984217</v>
       </c>
       <c r="T2">
-        <v>0.005428534160038525</v>
+        <v>0.007199353749842172</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.45705511607906</v>
+        <v>4.608931666666666</v>
       </c>
       <c r="H3">
-        <v>3.45705511607906</v>
+        <v>13.826795</v>
       </c>
       <c r="I3">
-        <v>0.01732226985425814</v>
+        <v>0.02269509467890621</v>
       </c>
       <c r="J3">
-        <v>0.01732226985425814</v>
+        <v>0.02269509467890622</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>168.618111757968</v>
+        <v>168.7997026666667</v>
       </c>
       <c r="N3">
-        <v>168.618111757968</v>
+        <v>506.3991080000001</v>
       </c>
       <c r="O3">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="P3">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="Q3">
-        <v>582.9221059164739</v>
+        <v>777.9862949443178</v>
       </c>
       <c r="R3">
-        <v>582.9221059164739</v>
+        <v>7001.87665449886</v>
       </c>
       <c r="S3">
-        <v>0.006461147275487425</v>
+        <v>0.007915433795339369</v>
       </c>
       <c r="T3">
-        <v>0.006461147275487425</v>
+        <v>0.00791543379533937</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.45705511607906</v>
+        <v>4.608931666666666</v>
       </c>
       <c r="H4">
-        <v>3.45705511607906</v>
+        <v>13.826795</v>
       </c>
       <c r="I4">
-        <v>0.01732226985425814</v>
+        <v>0.02269509467890621</v>
       </c>
       <c r="J4">
-        <v>0.01732226985425814</v>
+        <v>0.02269509467890622</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>61.5935939390125</v>
+        <v>68.09032333333333</v>
       </c>
       <c r="N4">
-        <v>61.5935939390125</v>
+        <v>204.27097</v>
       </c>
       <c r="O4">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="P4">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="Q4">
-        <v>212.9324490445593</v>
+        <v>313.8236474045722</v>
       </c>
       <c r="R4">
-        <v>212.9324490445593</v>
+        <v>2824.41282664115</v>
       </c>
       <c r="S4">
-        <v>0.002360157384740276</v>
+        <v>0.003192922960963735</v>
       </c>
       <c r="T4">
-        <v>0.002360157384740276</v>
+        <v>0.003192922960963736</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.45705511607906</v>
+        <v>4.608931666666666</v>
       </c>
       <c r="H5">
-        <v>3.45705511607906</v>
+        <v>13.826795</v>
       </c>
       <c r="I5">
-        <v>0.01732226985425814</v>
+        <v>0.02269509467890621</v>
       </c>
       <c r="J5">
-        <v>0.01732226985425814</v>
+        <v>0.02269509467890622</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>80.1819703791251</v>
+        <v>93.562673</v>
       </c>
       <c r="N5">
-        <v>80.1819703791251</v>
+        <v>280.688019</v>
       </c>
       <c r="O5">
-        <v>0.1773688471454364</v>
+        <v>0.1933186106880956</v>
       </c>
       <c r="P5">
-        <v>0.1773688471454364</v>
+        <v>0.1933186106880956</v>
       </c>
       <c r="Q5">
-        <v>277.1934909164541</v>
+        <v>431.2239664076783</v>
       </c>
       <c r="R5">
-        <v>277.1934909164541</v>
+        <v>3881.015697669105</v>
       </c>
       <c r="S5">
-        <v>0.003072431033991913</v>
+        <v>0.004387384172760941</v>
       </c>
       <c r="T5">
-        <v>0.003072431033991913</v>
+        <v>0.004387384172760942</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>167.52411133695</v>
+        <v>168.218394</v>
       </c>
       <c r="H6">
-        <v>167.52411133695</v>
+        <v>504.655182</v>
       </c>
       <c r="I6">
-        <v>0.8394132480493173</v>
+        <v>0.8283334739316415</v>
       </c>
       <c r="J6">
-        <v>0.8394132480493173</v>
+        <v>0.8283334739316416</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>141.669759355589</v>
+        <v>153.5290173333333</v>
       </c>
       <c r="N6">
-        <v>141.669759355589</v>
+        <v>460.587052</v>
       </c>
       <c r="O6">
-        <v>0.313384689518856</v>
+        <v>0.3172206968818489</v>
       </c>
       <c r="P6">
-        <v>0.313384689518856</v>
+        <v>0.317220696881849</v>
       </c>
       <c r="Q6">
-        <v>23733.10053936461</v>
+        <v>25826.4047282115</v>
       </c>
       <c r="R6">
-        <v>23733.10053936461</v>
+        <v>232437.6425539035</v>
       </c>
       <c r="S6">
-        <v>0.2630592601179497</v>
+        <v>0.2627645218511581</v>
       </c>
       <c r="T6">
-        <v>0.2630592601179497</v>
+        <v>0.2627645218511582</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>167.52411133695</v>
+        <v>168.218394</v>
       </c>
       <c r="H7">
-        <v>167.52411133695</v>
+        <v>504.655182</v>
       </c>
       <c r="I7">
-        <v>0.8394132480493173</v>
+        <v>0.8283334739316415</v>
       </c>
       <c r="J7">
-        <v>0.8394132480493173</v>
+        <v>0.8283334739316416</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>168.618111757968</v>
+        <v>168.7997026666667</v>
       </c>
       <c r="N7">
-        <v>168.618111757968</v>
+        <v>506.3991080000001</v>
       </c>
       <c r="O7">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="P7">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="Q7">
-        <v>28247.59932756811</v>
+        <v>28395.21489026419</v>
       </c>
       <c r="R7">
-        <v>28247.59932756811</v>
+        <v>255556.9340123777</v>
       </c>
       <c r="S7">
-        <v>0.3130982640423812</v>
+        <v>0.2889002608772272</v>
       </c>
       <c r="T7">
-        <v>0.3130982640423812</v>
+        <v>0.2889002608772273</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>167.52411133695</v>
+        <v>168.218394</v>
       </c>
       <c r="H8">
-        <v>167.52411133695</v>
+        <v>504.655182</v>
       </c>
       <c r="I8">
-        <v>0.8394132480493173</v>
+        <v>0.8283334739316415</v>
       </c>
       <c r="J8">
-        <v>0.8394132480493173</v>
+        <v>0.8283334739316416</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>61.5935939390125</v>
+        <v>68.09032333333333</v>
       </c>
       <c r="N8">
-        <v>61.5935939390125</v>
+        <v>204.27097</v>
       </c>
       <c r="O8">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="P8">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="Q8">
-        <v>10318.41208868202</v>
+        <v>11454.04483807406</v>
       </c>
       <c r="R8">
-        <v>10318.41208868202</v>
+        <v>103086.4035426666</v>
       </c>
       <c r="S8">
-        <v>0.1143699638038726</v>
+        <v>0.1165364148363473</v>
       </c>
       <c r="T8">
-        <v>0.1143699638038726</v>
+        <v>0.1165364148363473</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>167.52411133695</v>
+        <v>168.218394</v>
       </c>
       <c r="H9">
-        <v>167.52411133695</v>
+        <v>504.655182</v>
       </c>
       <c r="I9">
-        <v>0.8394132480493173</v>
+        <v>0.8283334739316415</v>
       </c>
       <c r="J9">
-        <v>0.8394132480493173</v>
+        <v>0.8283334739316416</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>80.1819703791251</v>
+        <v>93.562673</v>
       </c>
       <c r="N9">
-        <v>80.1819703791251</v>
+        <v>280.688019</v>
       </c>
       <c r="O9">
-        <v>0.1773688471454364</v>
+        <v>0.1933186106880956</v>
       </c>
       <c r="P9">
-        <v>0.1773688471454364</v>
+        <v>0.1933186106880956</v>
       </c>
       <c r="Q9">
-        <v>13432.41333300858</v>
+        <v>15738.96259040716</v>
       </c>
       <c r="R9">
-        <v>13432.41333300858</v>
+        <v>141650.6633136645</v>
       </c>
       <c r="S9">
-        <v>0.1488857600851136</v>
+        <v>0.1601322763669088</v>
       </c>
       <c r="T9">
-        <v>0.1488857600851136</v>
+        <v>0.1601322763669088</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,61 +1018,61 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>28.5917039135673</v>
+        <v>0.1627236666666667</v>
       </c>
       <c r="H10">
-        <v>28.5917039135673</v>
+        <v>0.488171</v>
       </c>
       <c r="I10">
-        <v>0.1432644820964245</v>
+        <v>0.00080127658394417</v>
       </c>
       <c r="J10">
-        <v>0.1432644820964245</v>
+        <v>0.00080127658394417</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>141.669759355589</v>
+        <v>153.5290173333333</v>
       </c>
       <c r="N10">
-        <v>141.669759355589</v>
+        <v>460.587052</v>
       </c>
       <c r="O10">
-        <v>0.313384689518856</v>
+        <v>0.3172206968818489</v>
       </c>
       <c r="P10">
-        <v>0.313384689518856</v>
+        <v>0.317220696881849</v>
       </c>
       <c r="Q10">
-        <v>4050.579813001332</v>
+        <v>24.98280464021022</v>
       </c>
       <c r="R10">
-        <v>4050.579813001332</v>
+        <v>224.845241761892</v>
       </c>
       <c r="S10">
-        <v>0.0448968952408677</v>
+        <v>0.0002541815163538769</v>
       </c>
       <c r="T10">
-        <v>0.0448968952408677</v>
+        <v>0.0002541815163538769</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,61 +1080,61 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>28.5917039135673</v>
+        <v>0.1627236666666667</v>
       </c>
       <c r="H11">
-        <v>28.5917039135673</v>
+        <v>0.488171</v>
       </c>
       <c r="I11">
-        <v>0.1432644820964245</v>
+        <v>0.00080127658394417</v>
       </c>
       <c r="J11">
-        <v>0.1432644820964245</v>
+        <v>0.00080127658394417</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>168.618111757968</v>
+        <v>168.7997026666667</v>
       </c>
       <c r="N11">
-        <v>168.618111757968</v>
+        <v>506.3991080000001</v>
       </c>
       <c r="O11">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="P11">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="Q11">
-        <v>4821.079125848622</v>
+        <v>27.46770655016312</v>
       </c>
       <c r="R11">
-        <v>4821.079125848622</v>
+        <v>247.209358951468</v>
       </c>
       <c r="S11">
-        <v>0.05343716071620298</v>
+        <v>0.0002794635511197365</v>
       </c>
       <c r="T11">
-        <v>0.05343716071620298</v>
+        <v>0.0002794635511197365</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,61 +1142,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>28.5917039135673</v>
+        <v>0.1627236666666667</v>
       </c>
       <c r="H12">
-        <v>28.5917039135673</v>
+        <v>0.488171</v>
       </c>
       <c r="I12">
-        <v>0.1432644820964245</v>
+        <v>0.00080127658394417</v>
       </c>
       <c r="J12">
-        <v>0.1432644820964245</v>
+        <v>0.00080127658394417</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>61.5935939390125</v>
+        <v>68.09032333333333</v>
       </c>
       <c r="N12">
-        <v>61.5935939390125</v>
+        <v>204.27097</v>
       </c>
       <c r="O12">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="P12">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="Q12">
-        <v>1761.065800876739</v>
+        <v>11.07990707731889</v>
       </c>
       <c r="R12">
-        <v>1761.065800876739</v>
+        <v>99.71916369587001</v>
       </c>
       <c r="S12">
-        <v>0.01951977011302301</v>
+        <v>0.0001127298404855665</v>
       </c>
       <c r="T12">
-        <v>0.01951977011302301</v>
+        <v>0.0001127298404855665</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1204,309 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.1627236666666667</v>
+      </c>
+      <c r="H13">
+        <v>0.488171</v>
+      </c>
+      <c r="I13">
+        <v>0.00080127658394417</v>
+      </c>
+      <c r="J13">
+        <v>0.00080127658394417</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>93.562673</v>
+      </c>
+      <c r="N13">
+        <v>280.688019</v>
+      </c>
+      <c r="O13">
+        <v>0.1933186106880956</v>
+      </c>
+      <c r="P13">
+        <v>0.1933186106880956</v>
+      </c>
+      <c r="Q13">
+        <v>15.22486121369434</v>
+      </c>
+      <c r="R13">
+        <v>137.023750923249</v>
+      </c>
+      <c r="S13">
+        <v>0.0001549016759849902</v>
+      </c>
+      <c r="T13">
+        <v>0.0001549016759849902</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>30.09047233333333</v>
+      </c>
+      <c r="H14">
+        <v>90.271417</v>
+      </c>
+      <c r="I14">
+        <v>0.148170154805508</v>
+      </c>
+      <c r="J14">
+        <v>0.148170154805508</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>153.5290173333333</v>
+      </c>
+      <c r="N14">
+        <v>460.587052</v>
+      </c>
+      <c r="O14">
+        <v>0.3172206968818489</v>
+      </c>
+      <c r="P14">
+        <v>0.317220696881849</v>
+      </c>
+      <c r="Q14">
+        <v>4619.76064843252</v>
+      </c>
+      <c r="R14">
+        <v>41577.84583589268</v>
+      </c>
+      <c r="S14">
+        <v>0.0470026397644947</v>
+      </c>
+      <c r="T14">
+        <v>0.0470026397644947</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>30.09047233333333</v>
+      </c>
+      <c r="H15">
+        <v>90.271417</v>
+      </c>
+      <c r="I15">
+        <v>0.148170154805508</v>
+      </c>
+      <c r="J15">
+        <v>0.148170154805508</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>168.7997026666667</v>
+      </c>
+      <c r="N15">
+        <v>506.3991080000001</v>
+      </c>
+      <c r="O15">
+        <v>0.3487728915577651</v>
+      </c>
+      <c r="P15">
+        <v>0.3487728915577651</v>
+      </c>
+      <c r="Q15">
+        <v>5079.262782966227</v>
+      </c>
+      <c r="R15">
+        <v>45713.36504669604</v>
+      </c>
+      <c r="S15">
+        <v>0.05167773333407873</v>
+      </c>
+      <c r="T15">
+        <v>0.05167773333407873</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>28.5917039135673</v>
-      </c>
-      <c r="H13">
-        <v>28.5917039135673</v>
-      </c>
-      <c r="I13">
-        <v>0.1432644820964245</v>
-      </c>
-      <c r="J13">
-        <v>0.1432644820964245</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>80.1819703791251</v>
-      </c>
-      <c r="N13">
-        <v>80.1819703791251</v>
-      </c>
-      <c r="O13">
-        <v>0.1773688471454364</v>
-      </c>
-      <c r="P13">
-        <v>0.1773688471454364</v>
-      </c>
-      <c r="Q13">
-        <v>2292.539156286369</v>
-      </c>
-      <c r="R13">
-        <v>2292.539156286369</v>
-      </c>
-      <c r="S13">
-        <v>0.02541065602633083</v>
-      </c>
-      <c r="T13">
-        <v>0.02541065602633083</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>30.09047233333333</v>
+      </c>
+      <c r="H16">
+        <v>90.271417</v>
+      </c>
+      <c r="I16">
+        <v>0.148170154805508</v>
+      </c>
+      <c r="J16">
+        <v>0.148170154805508</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>68.09032333333333</v>
+      </c>
+      <c r="N16">
+        <v>204.27097</v>
+      </c>
+      <c r="O16">
+        <v>0.1406878008722904</v>
+      </c>
+      <c r="P16">
+        <v>0.1406878008722904</v>
+      </c>
+      <c r="Q16">
+        <v>2048.869990429388</v>
+      </c>
+      <c r="R16">
+        <v>18439.82991386449</v>
+      </c>
+      <c r="S16">
+        <v>0.02084573323449376</v>
+      </c>
+      <c r="T16">
+        <v>0.02084573323449376</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>30.09047233333333</v>
+      </c>
+      <c r="H17">
+        <v>90.271417</v>
+      </c>
+      <c r="I17">
+        <v>0.148170154805508</v>
+      </c>
+      <c r="J17">
+        <v>0.148170154805508</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>93.562673</v>
+      </c>
+      <c r="N17">
+        <v>280.688019</v>
+      </c>
+      <c r="O17">
+        <v>0.1933186106880956</v>
+      </c>
+      <c r="P17">
+        <v>0.1933186106880956</v>
+      </c>
+      <c r="Q17">
+        <v>2815.345023339214</v>
+      </c>
+      <c r="R17">
+        <v>25338.10521005292</v>
+      </c>
+      <c r="S17">
+        <v>0.02864404847244087</v>
+      </c>
+      <c r="T17">
+        <v>0.02864404847244087</v>
       </c>
     </row>
   </sheetData>
